--- a/04项目设计(PD)/数据字典-生产管理-生产日报.xlsx
+++ b/04项目设计(PD)/数据字典-生产管理-生产日报.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celia\Desktop\sf-bpm\trunk\04项目设计(PD)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956A2A44-2C48-4541-86EA-3D3F796BDF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4921F351-6D85-44A8-8389-5A787934CFC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prod_report1-发酵酒损" sheetId="1" r:id="rId1"/>
     <sheet name="prod_report2-过滤酒损" sheetId="2" r:id="rId2"/>
     <sheet name="prod_report3-包装车间" sheetId="3" r:id="rId3"/>
     <sheet name="prod_report4-糖化日报" sheetId="4" r:id="rId4"/>
-    <sheet name="prod_report5-产成品库存查询" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1799,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7844D247-805F-4091-BF2D-EC38735FFC8B}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2388,19 +2387,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA2340C-5CDB-4435-8D0F-81B4DBD65A40}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>